--- a/PartnerData/excel/Humanity.xlsx
+++ b/PartnerData/excel/Humanity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CD166-607D-BC4F-90B7-D7DFDC513DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6898B1FE-FB5F-D14E-B851-525E6513B921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
   <si>
     <t>안녕, 닭</t>
   </si>
@@ -451,6 +451,14 @@
   </si>
   <si>
     <t>술집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>college</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인문대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -967,7 +975,7 @@
     <col min="5" max="5" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>124</v>
       </c>
@@ -983,8 +991,11 @@
       <c r="E1" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="48">
+      <c r="F1" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="48">
       <c r="A2" s="6" t="s">
         <v>108</v>
       </c>
@@ -1000,8 +1011,11 @@
       <c r="E2" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
+      <c r="F2" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16">
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
@@ -1017,8 +1031,11 @@
       <c r="E3" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
+      <c r="F3" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="6" t="s">
         <v>108</v>
       </c>
@@ -1034,8 +1051,11 @@
       <c r="E4" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
+      <c r="F4" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1051,8 +1071,11 @@
       <c r="E5" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
+      <c r="F5" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="6" t="s">
         <v>108</v>
       </c>
@@ -1068,8 +1091,11 @@
       <c r="E6" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
+      <c r="F6" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="6" t="s">
         <v>108</v>
       </c>
@@ -1085,8 +1111,11 @@
       <c r="E7" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
+      <c r="F7" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="6" t="s">
         <v>108</v>
       </c>
@@ -1102,8 +1131,11 @@
       <c r="E8" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
+      <c r="F8" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="6" t="s">
         <v>108</v>
       </c>
@@ -1119,8 +1151,11 @@
       <c r="E9" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16">
+      <c r="F9" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="6" t="s">
         <v>108</v>
       </c>
@@ -1136,8 +1171,11 @@
       <c r="E10" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
+      <c r="F10" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="6" t="s">
         <v>108</v>
       </c>
@@ -1153,8 +1191,11 @@
       <c r="E11" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
+      <c r="F11" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="6" t="s">
         <v>107</v>
       </c>
@@ -1170,8 +1211,11 @@
       <c r="E12" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="48">
+      <c r="F12" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="48">
       <c r="A13" s="6" t="s">
         <v>107</v>
       </c>
@@ -1187,8 +1231,11 @@
       <c r="E13" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
+      <c r="F13" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="6" t="s">
         <v>107</v>
       </c>
@@ -1204,8 +1251,11 @@
       <c r="E14" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="32">
+      <c r="F14" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32">
       <c r="A15" s="6" t="s">
         <v>107</v>
       </c>
@@ -1221,8 +1271,11 @@
       <c r="E15" s="13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16">
+      <c r="F15" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="6" t="s">
         <v>107</v>
       </c>
@@ -1238,8 +1291,11 @@
       <c r="E16" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
+      <c r="F16" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="6" t="s">
         <v>107</v>
       </c>
@@ -1255,8 +1311,11 @@
       <c r="E17" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="48">
+      <c r="F17" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="48">
       <c r="A18" s="6" t="s">
         <v>129</v>
       </c>
@@ -1272,8 +1331,11 @@
       <c r="E18" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16">
+      <c r="F18" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="6" t="s">
         <v>129</v>
       </c>
@@ -1289,8 +1351,11 @@
       <c r="E19" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="32">
+      <c r="F19" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32">
       <c r="A20" s="6" t="s">
         <v>129</v>
       </c>
@@ -1303,8 +1368,11 @@
       <c r="E20" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="32">
+      <c r="F20" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="32">
       <c r="A21" s="6" t="s">
         <v>129</v>
       </c>
@@ -1320,8 +1388,11 @@
       <c r="E21" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="32">
+      <c r="F21" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32">
       <c r="A22" s="6" t="s">
         <v>129</v>
       </c>
@@ -1337,8 +1408,11 @@
       <c r="E22" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16">
+      <c r="F22" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="6" t="s">
         <v>129</v>
       </c>
@@ -1354,8 +1428,11 @@
       <c r="E23" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16">
+      <c r="F23" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="6" t="s">
         <v>129</v>
       </c>
@@ -1371,8 +1448,11 @@
       <c r="E24" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16">
+      <c r="F24" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="6" t="s">
         <v>129</v>
       </c>
@@ -1388,8 +1468,11 @@
       <c r="E25" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16">
+      <c r="F25" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="6" t="s">
         <v>129</v>
       </c>
@@ -1405,8 +1488,11 @@
       <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16">
+      <c r="F26" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="6" t="s">
         <v>129</v>
       </c>
@@ -1422,8 +1508,11 @@
       <c r="E27" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16">
+      <c r="F27" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16">
       <c r="A28" s="6" t="s">
         <v>129</v>
       </c>
@@ -1439,8 +1528,11 @@
       <c r="E28" s="13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16">
+      <c r="F28" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16">
       <c r="A29" s="6" t="s">
         <v>129</v>
       </c>
@@ -1456,8 +1548,11 @@
       <c r="E29" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="32">
+      <c r="F29" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="32">
       <c r="A30" s="6" t="s">
         <v>129</v>
       </c>
@@ -1473,8 +1568,11 @@
       <c r="E30" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16">
+      <c r="F30" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16">
       <c r="A31" s="6" t="s">
         <v>129</v>
       </c>
@@ -1490,8 +1588,11 @@
       <c r="E31" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1">
+      <c r="F31" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>129</v>
       </c>
@@ -1506,6 +1607,9 @@
       </c>
       <c r="E32" s="12" t="s">
         <v>110</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16">

--- a/PartnerData/excel/Humanity.xlsx
+++ b/PartnerData/excel/Humanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6898B1FE-FB5F-D14E-B851-525E6513B921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02312E0-F281-3B41-8D41-2667DDB890F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,28 +515,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="-apple-system"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -576,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,28 +578,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="138" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1005,7 +970,7 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1088,7 +1053,7 @@
       <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1108,7 +1073,7 @@
       <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1188,7 +1153,7 @@
       <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1208,7 +1173,7 @@
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1225,7 +1190,7 @@
       <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1248,7 +1213,7 @@
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1265,10 +1230,10 @@
       <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="9" t="s">
         <v>119</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1288,7 +1253,7 @@
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1325,10 +1290,10 @@
       <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1362,7 +1327,7 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1382,7 +1347,7 @@
       <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1402,7 +1367,7 @@
       <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1425,7 +1390,7 @@
       <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="9" t="s">
         <v>116</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1465,7 +1430,7 @@
       <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1505,7 +1470,7 @@
       <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -1525,7 +1490,7 @@
       <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -1545,7 +1510,7 @@
       <c r="D29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="9" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -1562,10 +1527,10 @@
       <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="9" t="s">
         <v>111</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -1605,116 +1570,12 @@
       <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="16">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="21">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" ht="16">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="16">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="16">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="16">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="16">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" ht="16">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" ht="16">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" ht="16">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" ht="16">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" ht="16">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" ht="16">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" ht="16">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" ht="16">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PartnerData/excel/Humanity.xlsx
+++ b/PartnerData/excel/Humanity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02312E0-F281-3B41-8D41-2667DDB890F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EC24FC-F065-7149-92C7-71B7E3975C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,49 +319,6 @@
     <t>충북 청주시 서원구 내수동로114번길 21</t>
   </si>
   <si>
-    <t>1. 닭도리탕 1,000원 할인 더불어 공기밥 2개 추가제공 
-2. 배달 리뷰이벤트 추가 제공 1인 제외, 반마리 이상 리뷰서비스 1가지 추가 제공 
-3. 소주, 맥주 2,900원에 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 3층 대관 할인 
-2. 소담 도장으로 쿠폰 5개 적립 시 아메리카노 무료 
-3. 10개 적립 시 모든 음료 중 한 잔 무료 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 14시 이후 15,000원 이상 주문 시 디저트 한 개 무료 
-2. 18시 이후 1인당 음료+크로플 세트 500원 할인 3. 아메리카노 샷 추가 무료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 곱도리탕 주문 시 날치알 주먹밥 서비스 
-2. 테이블당 메인안주 2개 이상 주문 시 사이드메뉴 서비스 
-3. 5인 이상 방문 시 닭꼬치 서비스 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 음료수 무료 제공 
-2. 50,000원 이상 현금결제 시 사이드메뉴 추가 지급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 현금 결제 시 5% 할인 
-2. 5만원 이상 음료수 2병 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 테이블 당 음료 1병 
-2. 현금 결제 시 10% 할인 (5만원 이상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 안주 2개 시키면 전체 금액에서 5,000원 할인 
-2. 테이블당 음료수 1개 증정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카페</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,6 +416,38 @@
   </si>
   <si>
     <t>인문대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭도리탕 1,000원 할인 더불어 공기밥 2개 추가제공 / 배달 리뷰이벤트 추가 제공 1인 제외, 반마리 이상 리뷰서비스 1가지 추가 제공 / 소주, 맥주 2,900원에 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3층 대관 할인 / 소담 도장으로 쿠폰 5개 적립 시 아메리카노 무료 / 10개 적립 시 모든 음료 중 한 잔 무료 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14시 이후 15,000원 이상 주문 시 디저트 한 개 무료 / 18시 이후 1인당 음료+크로플 세트 500원 할인 3. 아메리카노 샷 추가 무료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">곱도리탕 주문 시 날치알 주먹밥 서비스 / 테이블당 메인안주 2개 이상 주문 시 사이드메뉴 서비스 / 5인 이상 방문 시 닭꼬치 서비스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료수 무료 제공 / 50,000원 이상 현금결제 시 사이드메뉴 추가 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금 결제 시 5% 할인 / 5만원 이상 음료수 2병 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 당 음료 1병 / 현금 결제 시 10% 할인 (5만원 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안주 2개 시키면 전체 금액에서 5,000원 할인 / 테이블당 음료수 1개 증정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="138" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -942,27 +931,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="48">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="32">
       <c r="A2" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -971,18 +960,18 @@
         <v>31</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
       <c r="A3" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -997,12 +986,12 @@
         <v>84</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1017,12 +1006,12 @@
         <v>85</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1037,12 +1026,12 @@
         <v>86</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16">
       <c r="A6" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1054,15 +1043,15 @@
         <v>36</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16">
       <c r="A7" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1074,15 +1063,15 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
       <c r="A8" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1097,12 +1086,12 @@
         <v>87</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1117,12 +1106,12 @@
         <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
       <c r="A10" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1137,12 +1126,12 @@
         <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
       <c r="A11" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1154,15 +1143,15 @@
         <v>41</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
       <c r="A12" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1174,15 +1163,15 @@
         <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="48">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32">
       <c r="A13" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1191,18 +1180,18 @@
         <v>66</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16">
       <c r="A14" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1214,15 +1203,15 @@
         <v>43</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
       <c r="A15" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1231,18 +1220,18 @@
         <v>68</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
       <c r="A16" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1254,15 +1243,15 @@
         <v>44</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16">
       <c r="A17" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1277,12 +1266,12 @@
         <v>91</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="48">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32">
       <c r="A18" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1291,18 +1280,18 @@
         <v>71</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16">
       <c r="A19" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1317,29 +1306,29 @@
         <v>92</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1348,18 +1337,18 @@
         <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1368,18 +1357,18 @@
         <v>74</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16">
       <c r="A23" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1391,15 +1380,15 @@
         <v>47</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16">
       <c r="A24" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1414,12 +1403,12 @@
         <v>96</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16">
       <c r="A25" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1431,15 +1420,15 @@
         <v>49</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16">
       <c r="A26" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1454,12 +1443,12 @@
         <v>97</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16">
       <c r="A27" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1471,15 +1460,15 @@
         <v>51</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16">
       <c r="A28" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -1491,15 +1480,15 @@
         <v>52</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16">
       <c r="A29" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1511,15 +1500,15 @@
         <v>53</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16">
       <c r="A30" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1528,18 +1517,18 @@
         <v>82</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16">
       <c r="A31" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -1554,12 +1543,12 @@
         <v>98</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" thickBot="1">
       <c r="A32" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>30</v>
@@ -1571,10 +1560,10 @@
         <v>55</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
